--- a/colored_map.xlsx
+++ b/colored_map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcma\PycharmProjects\Python1\Ref1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcma\PycharmProjects\Cultural-Perspectives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336BA80B-5687-489C-959E-BF2E36C59388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F2BD40-35DE-474A-B06E-DB7C755B330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Language</t>
   </si>
@@ -112,15 +112,9 @@
     <t>Ratings</t>
   </si>
   <si>
-    <t>Less than Average</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Not Significant</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
   </si>
   <si>
     <t>South Korea</t>
-  </si>
-  <si>
-    <t>Highly Significant</t>
   </si>
   <si>
     <t>Taiwan</t>
@@ -195,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -256,7 +247,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -888,21 +879,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.265625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.9296875" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -912,16 +902,10 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -930,17 +914,10 @@
         <f>VLOOKUP(B2,Sheet1!A:B,2,FALSE)*100</f>
         <v>90.216867469879503</v>
       </c>
-      <c r="D2" s="1">
-        <f>1-VLOOKUP(B2,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999996342048</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -949,17 +926,10 @@
         <f>VLOOKUP(B3,Sheet1!A:B,2,FALSE)*100</f>
         <v>85.649019607843101</v>
       </c>
-      <c r="D3" s="1">
-        <f>1-VLOOKUP(B3,Sheet1!A:E,5,FALSE)</f>
-        <v>0.86797024117875898</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -968,17 +938,10 @@
         <f>VLOOKUP(B4,Sheet1!A:B,2,FALSE)*100</f>
         <v>87</v>
       </c>
-      <c r="D4" s="1">
-        <f>1-VLOOKUP(B4,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99679754157999734</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -987,17 +950,10 @@
         <f>VLOOKUP(B5,Sheet1!A:B,2,FALSE)*100</f>
         <v>90.611670020120698</v>
       </c>
-      <c r="D5" s="1">
-        <f>1-VLOOKUP(B5,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999999993372</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1006,17 +962,10 @@
         <f>VLOOKUP(B6,Sheet1!A:B,2,FALSE)*100</f>
         <v>90.216867469879503</v>
       </c>
-      <c r="D6" s="1">
-        <f>1-VLOOKUP(B6,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999996342048</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1025,17 +974,10 @@
         <f>VLOOKUP(B7,Sheet1!A:B,2,FALSE)*100</f>
         <v>76.915686274509795</v>
       </c>
-      <c r="D7" s="1">
-        <f>1-VLOOKUP(B7,Sheet1!A:E,5,FALSE)</f>
-        <v>3.5971225997855072E-14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1044,17 +986,10 @@
         <f>VLOOKUP(B8,Sheet1!A:B,2,FALSE)*100</f>
         <v>86.987903225806491</v>
       </c>
-      <c r="D8" s="1">
-        <f>1-VLOOKUP(B8,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99685569636464888</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1063,17 +998,10 @@
         <f>VLOOKUP(B9,Sheet1!A:B,2,FALSE)*100</f>
         <v>87</v>
       </c>
-      <c r="D9" s="1">
-        <f>1-VLOOKUP(B9,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99679754157999734</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1082,17 +1010,10 @@
         <f>VLOOKUP(B10,Sheet1!A:B,2,FALSE)*100</f>
         <v>80.729411764705901</v>
       </c>
-      <c r="D10" s="1">
-        <f>1-VLOOKUP(B10,Sheet1!A:E,5,FALSE)</f>
-        <v>5.0797722579987159E-5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1101,17 +1022,10 @@
         <f>VLOOKUP(B11,Sheet1!A:B,2,FALSE)*100</f>
         <v>88.690909090909102</v>
       </c>
-      <c r="D11" s="1">
-        <f>1-VLOOKUP(B11,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999915133324802</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1120,17 +1034,10 @@
         <f>VLOOKUP(B12,Sheet1!A:B,2,FALSE)*100</f>
         <v>78.045186640471499</v>
       </c>
-      <c r="D12" s="1">
-        <f>1-VLOOKUP(B12,Sheet1!A:E,5,FALSE)</f>
-        <v>1.2098988477760031E-11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1139,17 +1046,10 @@
         <f>VLOOKUP(B13,Sheet1!A:B,2,FALSE)*100</f>
         <v>90.216867469879503</v>
       </c>
-      <c r="D13" s="1">
-        <f>1-VLOOKUP(B13,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999996342048</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1158,17 +1058,10 @@
         <f>VLOOKUP(B14,Sheet1!A:B,2,FALSE)*100</f>
         <v>85.649019607843101</v>
       </c>
-      <c r="D14" s="1">
-        <f>1-VLOOKUP(B14,Sheet1!A:E,5,FALSE)</f>
-        <v>0.86797024117875898</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1177,17 +1070,10 @@
         <f>VLOOKUP(B15,Sheet1!A:B,2,FALSE)*100</f>
         <v>89.044354838709708</v>
       </c>
-      <c r="D15" s="1">
-        <f>1-VLOOKUP(B15,Sheet1!A:E,5,FALSE)</f>
-        <v>0.9999998861177497</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1196,17 +1082,10 @@
         <f>VLOOKUP(B16,Sheet1!A:B,2,FALSE)*100</f>
         <v>84.25200000000001</v>
       </c>
-      <c r="D16" s="1">
-        <f>1-VLOOKUP(B16,Sheet1!A:E,5,FALSE)</f>
-        <v>0.29227211601911596</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1215,17 +1094,10 @@
         <f>VLOOKUP(B17,Sheet1!A:B,2,FALSE)*100</f>
         <v>81.017751479289899</v>
       </c>
-      <c r="D17" s="1">
-        <f>1-VLOOKUP(B17,Sheet1!A:E,5,FALSE)</f>
-        <v>7.0658121681055341E-5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1234,17 +1106,10 @@
         <f>VLOOKUP(B18,Sheet1!A:B,2,FALSE)*100</f>
         <v>89.968063872255499</v>
       </c>
-      <c r="D18" s="1">
-        <f>1-VLOOKUP(B18,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999996488609</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1253,17 +1118,10 @@
         <f>VLOOKUP(B19,Sheet1!A:B,2,FALSE)*100</f>
         <v>80.729411764705901</v>
       </c>
-      <c r="D19" s="1">
-        <f>1-VLOOKUP(B19,Sheet1!A:E,5,FALSE)</f>
-        <v>5.0797722579987159E-5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1272,17 +1130,10 @@
         <f>VLOOKUP(B20,Sheet1!A:B,2,FALSE)*100</f>
         <v>90.369072164948406</v>
       </c>
-      <c r="D20" s="1">
-        <f>1-VLOOKUP(B20,Sheet1!A:E,5,FALSE)</f>
-        <v>0.99999999984804733</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1291,17 +1142,10 @@
         <f>VLOOKUP(B21,Sheet1!A:B,2,FALSE)*100</f>
         <v>86.238383838383797</v>
       </c>
-      <c r="D21" s="1">
-        <f>1-VLOOKUP(B21,Sheet1!A:E,5,FALSE)</f>
-        <v>0.96342051959700825</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1310,17 +1154,10 @@
         <f>VLOOKUP(B22,Sheet1!A:B,2,FALSE)*100</f>
         <v>86.2623966942149</v>
       </c>
-      <c r="D22" s="1">
-        <f>1-VLOOKUP(B22,Sheet1!A:E,5,FALSE)</f>
-        <v>0.95727876728488615</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1329,17 +1166,10 @@
         <f>VLOOKUP(B23,Sheet1!A:B,2,FALSE)*100</f>
         <v>85.649019607843101</v>
       </c>
-      <c r="D23" s="1">
-        <f>1-VLOOKUP(B23,Sheet1!A:E,5,FALSE)</f>
-        <v>0.86797024117875898</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1348,17 +1178,10 @@
         <f>VLOOKUP(B24,Sheet1!A:B,2,FALSE)*100</f>
         <v>85.649019607843101</v>
       </c>
-      <c r="D24" s="1">
-        <f>1-VLOOKUP(B24,Sheet1!A:E,5,FALSE)</f>
-        <v>0.86797024117875898</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+  <autoFilter ref="A1:C23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
       <sortCondition ref="A1:A23"/>
     </sortState>
   </autoFilter>
